--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,16 +36,28 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>нет данных</t>
-  </si>
-  <si>
-    <t>Начислены пени за период с 30.12.18 по 25.03.2019 - 83 дня                             11748,00 х 0,1% х 43 дн = 505,16 руб.</t>
-  </si>
-  <si>
-    <t>оплачены пени</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>начислены пени 170 д</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -62,9 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,22 +89,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -126,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,79 +136,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,7 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -240,42 +161,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -583,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,320 +490,296 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43358</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43464</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>28900</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="2">
+        <v>30370</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>10800</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="2">
+        <v>11285</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43464</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>43549</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>30370</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>1470</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>6615</v>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="5">
+        <v>11748</v>
+      </c>
+      <c r="G4" s="9">
+        <v>11748</v>
+      </c>
+      <c r="H4" s="9">
+        <v>11748</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>11285</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>485</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>1139.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43549</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43750</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34850</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C2</f>
+        <v>4480</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>20115.2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>20115.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>20115.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12780</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C3</f>
+        <v>1495</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>3632.8500000000004</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3632.85</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3632.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43923</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>38132</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8-C6</f>
+        <v>3282</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>14736.18</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>18541.560000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <v>18541.560000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14346</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9-C7</f>
+        <v>1566</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>3805.38</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-11748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43549</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="G10" s="9">
+        <f>SUM(G2:G9)</f>
+        <v>54037.61</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H2:H9)</f>
+        <v>54037.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43923</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43750</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="G11" s="9">
+        <v>2410.4</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6">
-        <v>505.16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43750</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>34850</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C4</f>
-        <v>4480</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>20115.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>12780</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C5</f>
-        <v>1495</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>3632.8500000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="G12" s="9">
+        <f>SUM(G10,G11)</f>
+        <v>56448.01</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H10,H11)</f>
+        <v>54037.61</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9">
+        <f>SUM(H12,-G12)</f>
+        <v>-2410.4000000000015</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:E8"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>начислены пени 170 д</t>
@@ -140,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,9 +154,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,7 +473,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,8 +530,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -550,8 +544,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -560,10 +554,10 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4" s="5">
@@ -572,10 +566,10 @@
       <c r="F4" s="5">
         <v>11748</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>11748</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>11748</v>
       </c>
     </row>
@@ -594,8 +588,8 @@
         <v>2.39</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -618,10 +612,10 @@
         <f>D6*E6</f>
         <v>20115.2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>20115.2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>20115.2</v>
       </c>
     </row>
@@ -644,10 +638,10 @@
         <f>D7*E7</f>
         <v>3632.8500000000004</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>3632.85</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>3632.85</v>
       </c>
     </row>
@@ -672,11 +666,11 @@
         <f>D8*E8</f>
         <v>14736.18</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
         <v>18541.560000000001</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>18541.560000000001</v>
       </c>
     </row>
@@ -699,85 +693,99 @@
         <f>D9*E9</f>
         <v>3805.38</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>43923</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9">
-        <f>SUM(G2:G9)</f>
-        <v>54037.61</v>
-      </c>
-      <c r="H10" s="9">
-        <f>SUM(H2:H9)</f>
-        <v>54037.61</v>
-      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2410.4</v>
+      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>43923</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="10" t="s">
+        <v>43963</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2410.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9">
-        <v>2410.4</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="8">
+        <f>SUM(G2:G10)</f>
+        <v>56448.01</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H11)</f>
+        <v>56448.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="9">
-        <f>SUM(G10,G11)</f>
-        <v>56448.01</v>
-      </c>
-      <c r="H12" s="9">
-        <f>SUM(H10,H11)</f>
-        <v>54037.61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9">
+      <c r="G13" s="10"/>
+      <c r="H13" s="8">
         <f>SUM(H12,-G12)</f>
-        <v>-2410.4000000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>начислены пени 179 д</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -745,47 +751,122 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="A12" s="3">
+        <v>44103</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40402</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12-C8</f>
+        <v>2270</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f>D12*E12</f>
+        <v>10691.7</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>12945.900000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>12945.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15230</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13-C9</f>
+        <v>884</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f>D13*E13</f>
+        <v>2254.1999999999998</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44103</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2317.3200000000002</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8">
-        <f>SUM(G2:G10)</f>
-        <v>56448.01</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(H2:H11)</f>
-        <v>56448.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="G15" s="8">
+        <f>SUM(G2:G14)</f>
+        <v>71711.23000000001</v>
+      </c>
+      <c r="H15" s="8">
+        <f>SUM(H2:H14)</f>
+        <v>69393.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8">
+        <f>SUM(H15,-G15)</f>
+        <v>-2317.320000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>начислены пени 179 д</t>
+  </si>
+  <si>
+    <t>начислены пени 28 д</t>
+  </si>
+  <si>
+    <t>ОПЛАЧЕНЫ ПЕНИ</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +113,31 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -143,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +193,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,10 +514,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -703,50 +741,52 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="13">
         <v>43923</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
         <v>2410.4</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="13">
         <v>43963</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="B11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
         <v>2410.4</v>
       </c>
     </row>
@@ -802,71 +842,146 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="11">
         <v>44103</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>0</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="12">
         <v>2317.3200000000002</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="A15" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>41438</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C15-C12</f>
+        <v>1036</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="5">
+        <f>D15*E15</f>
+        <v>4879.5600000000004</v>
+      </c>
+      <c r="G15" s="8">
+        <f>SUM(F15,F16)</f>
+        <v>5899.56</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5623.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15630</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C16-C13</f>
+        <v>400</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="5">
+        <f>D16*E16</f>
+        <v>1019.9999999999999</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>157.46</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="8">
-        <f>SUM(G2:G14)</f>
-        <v>71711.23000000001</v>
-      </c>
-      <c r="H15" s="8">
-        <f>SUM(H2:H14)</f>
-        <v>69393.91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="G18" s="8">
+        <f>SUM(G2:G17)</f>
+        <v>77768.250000000015</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H2:H17)</f>
+        <v>75017.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8">
-        <f>SUM(H15,-G15)</f>
-        <v>-2317.320000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8">
+        <f>SUM(H18,-G18)</f>
+        <v>-2750.7000000000116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -126,7 +126,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,7 +202,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,6 +212,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,10 +521,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -741,52 +748,52 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>43923</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
         <v>2410.4</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>43963</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
         <v>2410.4</v>
       </c>
     </row>
@@ -860,7 +867,7 @@
       <c r="F14" s="9">
         <v>0</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="16">
         <v>2317.3200000000002</v>
       </c>
       <c r="H14" s="8"/>
@@ -935,43 +942,61 @@
       <c r="F17" s="9">
         <v>0</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="16">
         <v>157.46</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>11</v>
+      <c r="A18" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42190</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18-C15</f>
+        <v>752</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f>D18*E18</f>
+        <v>3541.92</v>
       </c>
       <c r="G18" s="8">
-        <f>SUM(G2:G17)</f>
-        <v>77768.250000000015</v>
+        <f>SUM(F18,F19)</f>
+        <v>4368.12</v>
       </c>
       <c r="H18" s="8">
-        <f>SUM(H2:H17)</f>
-        <v>75017.55</v>
+        <v>4163.8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8">
-        <f>SUM(H18,-G18)</f>
-        <v>-2750.7000000000116</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15954</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19-C16</f>
+        <v>324</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f>D19*E19</f>
+        <v>826.19999999999993</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -979,9 +1004,42 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(G2:G19)</f>
+        <v>82136.37000000001</v>
+      </c>
+      <c r="H20" s="8">
+        <f>SUM(H2:H19)</f>
+        <v>79181.350000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="17">
+        <f>SUM(H20,-G20)</f>
+        <v>-2955.0200000000041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -63,10 +63,10 @@
     <t>начислены пени 179 д</t>
   </si>
   <si>
-    <t>начислены пени 28 д</t>
-  </si>
-  <si>
     <t>ОПЛАЧЕНЫ ПЕНИ</t>
+  </si>
+  <si>
+    <t>начислены пени 68 д</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>2317.3200000000002</v>
+        <v>1799.48</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="16">
-        <v>157.46</v>
+        <v>165.19</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G20" s="8">
         <f>SUM(G2:G19)</f>
-        <v>82136.37000000001</v>
+        <v>81626.259999999995</v>
       </c>
       <c r="H20" s="8">
         <f>SUM(H2:H19)</f>
@@ -1028,7 +1028,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="17">
         <f>SUM(H20,-G20)</f>
-        <v>-2955.0200000000041</v>
+        <v>-2444.9099999999889</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">

--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -521,10 +521,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -999,37 +999,55 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>11</v>
+      <c r="A20" s="3">
+        <v>44355</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42190</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C20-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f>D20*E20</f>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
-        <f>SUM(G2:G19)</f>
-        <v>81626.259999999995</v>
+        <f>SUM(F20,F21)</f>
+        <v>0</v>
       </c>
       <c r="H20" s="8">
-        <f>SUM(H2:H19)</f>
-        <v>79181.350000000006</v>
+        <v>16989</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="17">
-        <f>SUM(H20,-G20)</f>
-        <v>-2444.9099999999889</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15954</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21-C19</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f>D21*E21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -1037,9 +1055,42 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(G2:G21)</f>
+        <v>81626.259999999995</v>
+      </c>
+      <c r="H22" s="8">
+        <f>SUM(H2:H21)</f>
+        <v>96170.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="17">
+        <f>SUM(H22,-G22)</f>
+        <v>14544.090000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -521,10 +521,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1050,37 +1050,55 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>11</v>
+      <c r="A22" s="3">
+        <v>44438</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42920</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22-C20</f>
+        <v>730</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="5">
+        <f>D22*E22</f>
+        <v>3620.8</v>
       </c>
       <c r="G22" s="8">
-        <f>SUM(G2:G21)</f>
-        <v>81626.259999999995</v>
+        <f>SUM(F22,F23)</f>
+        <v>4290.8</v>
       </c>
       <c r="H22" s="8">
-        <f>SUM(H2:H21)</f>
-        <v>96170.35</v>
+        <v>4290.8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="17">
-        <f>SUM(H22,-G22)</f>
-        <v>14544.090000000011</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16204</v>
+      </c>
+      <c r="D23" s="2">
+        <f>C23-C21</f>
+        <v>250</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="5">
+        <f>D23*E23</f>
+        <v>670</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
@@ -1088,9 +1106,42 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(G2:G23)</f>
+        <v>85917.06</v>
+      </c>
+      <c r="H24" s="8">
+        <f>SUM(H2:H23)</f>
+        <v>100461.15000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="17">
+        <f>SUM(H24,-G24)</f>
+        <v>14544.090000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/265ee.xlsx
+++ b/sputnik/personal/ee/265ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Т1</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>начислены пени 68 д</t>
+  </si>
+  <si>
+    <t>нет</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -214,6 +217,15 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -965,7 +977,7 @@
         <v>4.71</v>
       </c>
       <c r="F18" s="5">
-        <f>D18*E18</f>
+        <f t="shared" ref="F18:F23" si="0">D18*E18</f>
         <v>3541.92</v>
       </c>
       <c r="G18" s="8">
@@ -992,62 +1004,60 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="5">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>826.19999999999993</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="18">
         <v>44355</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>42190</v>
-      </c>
-      <c r="D20" s="2">
-        <f>C20-C18</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="B20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="19">
+        <v>13830</v>
+      </c>
+      <c r="E20" s="20">
         <v>4.71</v>
       </c>
-      <c r="F20" s="5">
-        <f>D20*E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="20">
+        <f t="shared" si="0"/>
+        <v>65139.3</v>
+      </c>
+      <c r="G20" s="17">
         <f>SUM(F20,F21)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+        <v>73194.75</v>
+      </c>
+      <c r="H20" s="17">
         <v>16989</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
-        <v>15954</v>
-      </c>
-      <c r="D21" s="2">
-        <f>C21-C19</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="C21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3159</v>
+      </c>
+      <c r="E21" s="20">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F21" s="5">
-        <f>D21*E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="20">
+        <f t="shared" si="0"/>
+        <v>8055.45</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1056,18 +1066,17 @@
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="2">
-        <v>42920</v>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="2">
-        <f>C22-C20</f>
         <v>730</v>
       </c>
       <c r="E22" s="5">
         <v>4.96</v>
       </c>
       <c r="F22" s="5">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>3620.8</v>
       </c>
       <c r="G22" s="8">
@@ -1083,55 +1092,68 @@
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2">
-        <v>16204</v>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D23" s="2">
-        <f>C23-C21</f>
         <v>250</v>
       </c>
       <c r="E23" s="5">
         <v>2.68</v>
       </c>
       <c r="F23" s="5">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>670</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>11</v>
+      <c r="A24" s="3">
+        <v>44523</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>47100</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
       </c>
       <c r="G24" s="8">
-        <f>SUM(G2:G23)</f>
-        <v>85917.06</v>
+        <f>SUM(F24,F25)</f>
+        <v>0</v>
       </c>
       <c r="H24" s="8">
-        <f>SUM(H2:H23)</f>
-        <v>100461.15000000001</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="17">
-        <f>SUM(H24,-G24)</f>
-        <v>14544.090000000011</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
@@ -1139,14 +1161,47 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G2:G23)</f>
+        <v>159111.81</v>
+      </c>
+      <c r="H26" s="8">
+        <f>SUM(H2:H23)</f>
+        <v>100461.15000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="17">
+        <f>SUM(H26,-G26)</f>
+        <v>-58650.659999999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
